--- a/Data_clean/MCAS/Estados_US/Edos_USA_2015/MINNESOTA_2015.xlsx
+++ b/Data_clean/MCAS/Estados_US/Edos_USA_2015/MINNESOTA_2015.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D1123"/>
+  <dimension ref="A1:D1117"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -360,22 +360,22 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Estado de Origen</t>
+          <t>mx_state</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Municipio Origen</t>
+          <t>mx_municipality</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Número de Matrículas</t>
+          <t>n_matriculas</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Porcentaje de Matrículas</t>
+          <t>pct_matriculas</t>
         </is>
       </c>
     </row>
@@ -407,7 +407,7 @@
         <v>7</v>
       </c>
       <c r="D3">
-        <v>0.0009045096265667399</v>
+        <v>0.00090450962656674</v>
       </c>
     </row>
     <row r="4">
@@ -426,7 +426,7 @@
     <row r="5">
       <c r="B5" t="inlineStr">
         <is>
-          <t>Rincón de Romos</t>
+          <t>Rincón De Romos</t>
         </is>
       </c>
       <c r="C5">
@@ -439,7 +439,7 @@
     <row r="6">
       <c r="B6" t="inlineStr">
         <is>
-          <t>San Francisco de los Romo</t>
+          <t>San Francisco De Los Romo</t>
         </is>
       </c>
       <c r="C6">
@@ -758,7 +758,7 @@
     <row r="29">
       <c r="B29" t="inlineStr">
         <is>
-          <t>Comitán de Domínguez</t>
+          <t>Comitán De Domínguez</t>
         </is>
       </c>
       <c r="C29">
@@ -1160,7 +1160,7 @@
         <v>7</v>
       </c>
       <c r="D59">
-        <v>0.0009045096265667399</v>
+        <v>0.00090450962656674</v>
       </c>
     </row>
     <row r="60">
@@ -1309,7 +1309,7 @@
     <row r="71">
       <c r="B71" t="inlineStr">
         <is>
-          <t>Guadalupe y Calvo</t>
+          <t>Guadalupe Y Calvo</t>
         </is>
       </c>
       <c r="C71">
@@ -1335,7 +1335,7 @@
     <row r="73">
       <c r="B73" t="inlineStr">
         <is>
-          <t>Hidalgo del Parral</t>
+          <t>Hidalgo Del Parral</t>
         </is>
       </c>
       <c r="C73">
@@ -1465,7 +1465,7 @@
     <row r="83">
       <c r="B83" t="inlineStr">
         <is>
-          <t>San Francisco del Oro</t>
+          <t>San Francisco Del Oro</t>
         </is>
       </c>
       <c r="C83">
@@ -1529,7 +1529,7 @@
         <v>7</v>
       </c>
       <c r="D87">
-        <v>0.0009045096265667399</v>
+        <v>0.00090450962656674</v>
       </c>
     </row>
     <row r="88">
@@ -1717,7 +1717,7 @@
     <row r="102">
       <c r="B102" t="inlineStr">
         <is>
-          <t>San Juan de Sabinas</t>
+          <t>San Juan De Sabinas</t>
         </is>
       </c>
       <c r="C102">
@@ -1826,7 +1826,7 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>Ciudad de México</t>
+          <t>Ciudad De México</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
@@ -2057,7 +2057,7 @@
     <row r="127">
       <c r="B127" t="inlineStr">
         <is>
-          <t>Coneto de Comonfort</t>
+          <t>Coneto De Comonfort</t>
         </is>
       </c>
       <c r="C127">
@@ -2155,7 +2155,7 @@
         <v>7</v>
       </c>
       <c r="D134">
-        <v>0.0009045096265667399</v>
+        <v>0.00090450962656674</v>
       </c>
     </row>
     <row r="135">
@@ -2174,7 +2174,7 @@
     <row r="136">
       <c r="B136" t="inlineStr">
         <is>
-          <t>Nombre de Dios</t>
+          <t>Nombre De Dios</t>
         </is>
       </c>
       <c r="C136">
@@ -2213,7 +2213,7 @@
     <row r="139">
       <c r="B139" t="inlineStr">
         <is>
-          <t>Pánuco de Coronado</t>
+          <t>Pánuco De Coronado</t>
         </is>
       </c>
       <c r="C139">
@@ -2278,7 +2278,7 @@
     <row r="144">
       <c r="B144" t="inlineStr">
         <is>
-          <t>San Juan de Guadalupe</t>
+          <t>San Juan De Guadalupe</t>
         </is>
       </c>
       <c r="C144">
@@ -2291,7 +2291,7 @@
     <row r="145">
       <c r="B145" t="inlineStr">
         <is>
-          <t>San Juan del Río</t>
+          <t>San Juan Del Río</t>
         </is>
       </c>
       <c r="C145">
@@ -2304,7 +2304,7 @@
     <row r="146">
       <c r="B146" t="inlineStr">
         <is>
-          <t>San Luis del Cordero</t>
+          <t>San Luis Del Cordero</t>
         </is>
       </c>
       <c r="C146">
@@ -2408,12 +2408,12 @@
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>Estado de México</t>
+          <t>Estado De México</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>Acambay de Ruíz Castañeda</t>
+          <t>Acambay De Ruíz Castañeda</t>
         </is>
       </c>
       <c r="C154">
@@ -2439,7 +2439,7 @@
     <row r="156">
       <c r="B156" t="inlineStr">
         <is>
-          <t>Almoloya de Alquisiras</t>
+          <t>Almoloya De Alquisiras</t>
         </is>
       </c>
       <c r="C156">
@@ -2452,7 +2452,7 @@
     <row r="157">
       <c r="B157" t="inlineStr">
         <is>
-          <t>Almoloya de Juárez</t>
+          <t>Almoloya De Juárez</t>
         </is>
       </c>
       <c r="C157">
@@ -2517,7 +2517,7 @@
     <row r="162">
       <c r="B162" t="inlineStr">
         <is>
-          <t>Atizapán de Zaragoza</t>
+          <t>Atizapán De Zaragoza</t>
         </is>
       </c>
       <c r="C162">
@@ -2569,7 +2569,7 @@
     <row r="166">
       <c r="B166" t="inlineStr">
         <is>
-          <t>Chapa de Mota</t>
+          <t>Chapa De Mota</t>
         </is>
       </c>
       <c r="C166">
@@ -2621,7 +2621,7 @@
     <row r="170">
       <c r="B170" t="inlineStr">
         <is>
-          <t>Coacalco de Berriozábal</t>
+          <t>Coacalco De Berriozábal</t>
         </is>
       </c>
       <c r="C170">
@@ -2660,7 +2660,7 @@
     <row r="173">
       <c r="B173" t="inlineStr">
         <is>
-          <t>Ecatepec de Morelos</t>
+          <t>Ecatepec De Morelos</t>
         </is>
       </c>
       <c r="C173">
@@ -2725,7 +2725,7 @@
     <row r="178">
       <c r="B178" t="inlineStr">
         <is>
-          <t>Ixtapan de la Sal</t>
+          <t>Ixtapan De La Sal</t>
         </is>
       </c>
       <c r="C178">
@@ -2738,7 +2738,7 @@
     <row r="179">
       <c r="B179" t="inlineStr">
         <is>
-          <t>Ixtapan del Oro</t>
+          <t>Ixtapan Del Oro</t>
         </is>
       </c>
       <c r="C179">
@@ -2855,7 +2855,7 @@
     <row r="188">
       <c r="B188" t="inlineStr">
         <is>
-          <t>Naucalpan de Juárez</t>
+          <t>Naucalpan De Juárez</t>
         </is>
       </c>
       <c r="C188">
@@ -2933,7 +2933,7 @@
     <row r="194">
       <c r="B194" t="inlineStr">
         <is>
-          <t>San Felipe del Progreso</t>
+          <t>San Felipe Del Progreso</t>
         </is>
       </c>
       <c r="C194">
@@ -2946,7 +2946,7 @@
     <row r="195">
       <c r="B195" t="inlineStr">
         <is>
-          <t>San Martín de las Pirámides</t>
+          <t>San Martín De Las Pirámides</t>
         </is>
       </c>
       <c r="C195">
@@ -3063,7 +3063,7 @@
     <row r="204">
       <c r="B204" t="inlineStr">
         <is>
-          <t>Tenango del Valle</t>
+          <t>Tenango Del Valle</t>
         </is>
       </c>
       <c r="C204">
@@ -3141,7 +3141,7 @@
     <row r="210">
       <c r="B210" t="inlineStr">
         <is>
-          <t>Tlalnepantla de Baz</t>
+          <t>Tlalnepantla De Baz</t>
         </is>
       </c>
       <c r="C210">
@@ -3161,7 +3161,7 @@
         <v>74</v>
       </c>
       <c r="D211">
-        <v>0.009561958909419821</v>
+        <v>0.00956195890941982</v>
       </c>
     </row>
     <row r="212">
@@ -3193,7 +3193,7 @@
     <row r="214">
       <c r="B214" t="inlineStr">
         <is>
-          <t>Valle de Bravo</t>
+          <t>Valle De Bravo</t>
         </is>
       </c>
       <c r="C214">
@@ -3206,7 +3206,7 @@
     <row r="215">
       <c r="B215" t="inlineStr">
         <is>
-          <t>Villa de Allende</t>
+          <t>Villa De Allende</t>
         </is>
       </c>
       <c r="C215">
@@ -3219,7 +3219,7 @@
     <row r="216">
       <c r="B216" t="inlineStr">
         <is>
-          <t>Villa del Carbón</t>
+          <t>Villa Del Carbón</t>
         </is>
       </c>
       <c r="C216">
@@ -3367,7 +3367,7 @@
     <row r="227">
       <c r="B227" t="inlineStr">
         <is>
-          <t>San Miguel de Allende</t>
+          <t>San Miguel De Allende</t>
         </is>
       </c>
       <c r="C227">
@@ -3380,20 +3380,20 @@
     <row r="228">
       <c r="B228" t="inlineStr">
         <is>
-          <t>Apaseo el Alto</t>
+          <t>Apaseo El Alto</t>
         </is>
       </c>
       <c r="C228">
         <v>7</v>
       </c>
       <c r="D228">
-        <v>0.0009045096265667399</v>
+        <v>0.00090450962656674</v>
       </c>
     </row>
     <row r="229">
       <c r="B229" t="inlineStr">
         <is>
-          <t>Apaseo el Grande</t>
+          <t>Apaseo El Grande</t>
         </is>
       </c>
       <c r="C229">
@@ -3452,7 +3452,7 @@
         <v>7</v>
       </c>
       <c r="D233">
-        <v>0.0009045096265667399</v>
+        <v>0.00090450962656674</v>
       </c>
     </row>
     <row r="234">
@@ -3471,7 +3471,7 @@
     <row r="235">
       <c r="B235" t="inlineStr">
         <is>
-          <t>Dolores Hidalgo Cuna de la Independencia Nacional</t>
+          <t>Dolores Hidalgo Cuna De La Independencia Nacional</t>
         </is>
       </c>
       <c r="C235">
@@ -3588,7 +3588,7 @@
     <row r="244">
       <c r="B244" t="inlineStr">
         <is>
-          <t>Purísima del Rincón</t>
+          <t>Purísima Del Rincón</t>
         </is>
       </c>
       <c r="C244">
@@ -3653,7 +3653,7 @@
     <row r="249">
       <c r="B249" t="inlineStr">
         <is>
-          <t>San Francisco del Rincón</t>
+          <t>San Francisco Del Rincón</t>
         </is>
       </c>
       <c r="C249">
@@ -3679,7 +3679,7 @@
     <row r="251">
       <c r="B251" t="inlineStr">
         <is>
-          <t>San Luis de la Paz</t>
+          <t>San Luis De La Paz</t>
         </is>
       </c>
       <c r="C251">
@@ -3692,7 +3692,7 @@
     <row r="252">
       <c r="B252" t="inlineStr">
         <is>
-          <t>Santa Cruz de Juventino Rosas</t>
+          <t>Santa Cruz De Juventino Rosas</t>
         </is>
       </c>
       <c r="C252">
@@ -3705,7 +3705,7 @@
     <row r="253">
       <c r="B253" t="inlineStr">
         <is>
-          <t>Silao de la Victoria</t>
+          <t>Silao De La Victoria</t>
         </is>
       </c>
       <c r="C253">
@@ -3770,7 +3770,7 @@
     <row r="258">
       <c r="B258" t="inlineStr">
         <is>
-          <t>Valle de Santiago</t>
+          <t>Valle De Santiago</t>
         </is>
       </c>
       <c r="C258">
@@ -3853,7 +3853,7 @@
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>Acapulco de Juárez</t>
+          <t>Acapulco De Juárez</t>
         </is>
       </c>
       <c r="C264">
@@ -3879,7 +3879,7 @@
     <row r="266">
       <c r="B266" t="inlineStr">
         <is>
-          <t>Ajuchitlán del Progreso</t>
+          <t>Ajuchitlán Del Progreso</t>
         </is>
       </c>
       <c r="C266">
@@ -3892,7 +3892,7 @@
     <row r="267">
       <c r="B267" t="inlineStr">
         <is>
-          <t>Alcozauca de Guerrero</t>
+          <t>Alcozauca De Guerrero</t>
         </is>
       </c>
       <c r="C267">
@@ -3925,13 +3925,13 @@
         <v>7</v>
       </c>
       <c r="D269">
-        <v>0.0009045096265667399</v>
+        <v>0.00090450962656674</v>
       </c>
     </row>
     <row r="270">
       <c r="B270" t="inlineStr">
         <is>
-          <t>Atenango del Río</t>
+          <t>Atenango Del Río</t>
         </is>
       </c>
       <c r="C270">
@@ -3944,7 +3944,7 @@
     <row r="271">
       <c r="B271" t="inlineStr">
         <is>
-          <t>Atlamajalcingo del Monte</t>
+          <t>Atlamajalcingo Del Monte</t>
         </is>
       </c>
       <c r="C271">
@@ -3970,7 +3970,7 @@
     <row r="273">
       <c r="B273" t="inlineStr">
         <is>
-          <t>Atoyac de Álvarez</t>
+          <t>Atoyac De Álvarez</t>
         </is>
       </c>
       <c r="C273">
@@ -3983,7 +3983,7 @@
     <row r="274">
       <c r="B274" t="inlineStr">
         <is>
-          <t>Ayutla de los Libres</t>
+          <t>Ayutla De Los Libres</t>
         </is>
       </c>
       <c r="C274">
@@ -4022,7 +4022,7 @@
     <row r="277">
       <c r="B277" t="inlineStr">
         <is>
-          <t>Buenavista de Cuéllar</t>
+          <t>Buenavista De Cuéllar</t>
         </is>
       </c>
       <c r="C277">
@@ -4035,7 +4035,7 @@
     <row r="278">
       <c r="B278" t="inlineStr">
         <is>
-          <t>Chilapa de Álvarez</t>
+          <t>Chilapa De Álvarez</t>
         </is>
       </c>
       <c r="C278">
@@ -4048,7 +4048,7 @@
     <row r="279">
       <c r="B279" t="inlineStr">
         <is>
-          <t>Chilpancingo de los Bravo</t>
+          <t>Chilpancingo De Los Bravo</t>
         </is>
       </c>
       <c r="C279">
@@ -4061,7 +4061,7 @@
     <row r="280">
       <c r="B280" t="inlineStr">
         <is>
-          <t>Coahuayutla de José María Izazaga</t>
+          <t>Coahuayutla De José María Izazaga</t>
         </is>
       </c>
       <c r="C280">
@@ -4126,7 +4126,7 @@
     <row r="285">
       <c r="B285" t="inlineStr">
         <is>
-          <t>Coyuca de Benítez</t>
+          <t>Coyuca De Benítez</t>
         </is>
       </c>
       <c r="C285">
@@ -4139,7 +4139,7 @@
     <row r="286">
       <c r="B286" t="inlineStr">
         <is>
-          <t>Coyuca de Catalán</t>
+          <t>Coyuca De Catalán</t>
         </is>
       </c>
       <c r="C286">
@@ -4191,7 +4191,7 @@
     <row r="290">
       <c r="B290" t="inlineStr">
         <is>
-          <t>Cuetzala del Progreso</t>
+          <t>Cuetzala Del Progreso</t>
         </is>
       </c>
       <c r="C290">
@@ -4204,7 +4204,7 @@
     <row r="291">
       <c r="B291" t="inlineStr">
         <is>
-          <t>Cutzamala de Pinzón</t>
+          <t>Cutzamala De Pinzón</t>
         </is>
       </c>
       <c r="C291">
@@ -4250,7 +4250,7 @@
         <v>7</v>
       </c>
       <c r="D294">
-        <v>0.0009045096265667399</v>
+        <v>0.00090450962656674</v>
       </c>
     </row>
     <row r="295">
@@ -4282,7 +4282,7 @@
     <row r="297">
       <c r="B297" t="inlineStr">
         <is>
-          <t>Huitzuco de los Figueroa</t>
+          <t>Huitzuco De Los Figueroa</t>
         </is>
       </c>
       <c r="C297">
@@ -4295,7 +4295,7 @@
     <row r="298">
       <c r="B298" t="inlineStr">
         <is>
-          <t>Iguala de la Independencia</t>
+          <t>Iguala De La Independencia</t>
         </is>
       </c>
       <c r="C298">
@@ -4321,7 +4321,7 @@
     <row r="300">
       <c r="B300" t="inlineStr">
         <is>
-          <t>Ixcateopan de Cuauhtémoc</t>
+          <t>Ixcateopan De Cuauhtémoc</t>
         </is>
       </c>
       <c r="C300">
@@ -4360,14 +4360,14 @@
     <row r="303">
       <c r="B303" t="inlineStr">
         <is>
-          <t>La Unión de Isidoro Montes de Oca</t>
+          <t>La Unión De Isidoro Montes De Oca</t>
         </is>
       </c>
       <c r="C303">
         <v>7</v>
       </c>
       <c r="D303">
-        <v>0.0009045096265667399</v>
+        <v>0.00090450962656674</v>
       </c>
     </row>
     <row r="304">
@@ -4445,7 +4445,7 @@
         <v>7</v>
       </c>
       <c r="D309">
-        <v>0.0009045096265667399</v>
+        <v>0.00090450962656674</v>
       </c>
     </row>
     <row r="310">
@@ -4555,7 +4555,7 @@
     <row r="318">
       <c r="B318" t="inlineStr">
         <is>
-          <t>Taxco de Alarcón</t>
+          <t>Taxco De Alarcón</t>
         </is>
       </c>
       <c r="C318">
@@ -4581,7 +4581,7 @@
     <row r="320">
       <c r="B320" t="inlineStr">
         <is>
-          <t>Técpan de Galeana</t>
+          <t>Técpan De Galeana</t>
         </is>
       </c>
       <c r="C320">
@@ -4620,7 +4620,7 @@
     <row r="323">
       <c r="B323" t="inlineStr">
         <is>
-          <t>Tixtla de Guerrero</t>
+          <t>Tixtla De Guerrero</t>
         </is>
       </c>
       <c r="C323">
@@ -4659,7 +4659,7 @@
     <row r="326">
       <c r="B326" t="inlineStr">
         <is>
-          <t>Tlalixtaquilla de Maldonado</t>
+          <t>Tlalixtaquilla De Maldonado</t>
         </is>
       </c>
       <c r="C326">
@@ -4718,7 +4718,7 @@
         <v>7</v>
       </c>
       <c r="D330">
-        <v>0.0009045096265667399</v>
+        <v>0.00090450962656674</v>
       </c>
     </row>
     <row r="331">
@@ -4781,7 +4781,7 @@
     <row r="335">
       <c r="B335" t="inlineStr">
         <is>
-          <t>Agua Blanca de Iturbide</t>
+          <t>Agua Blanca De Iturbide</t>
         </is>
       </c>
       <c r="C335">
@@ -4846,7 +4846,7 @@
     <row r="340">
       <c r="B340" t="inlineStr">
         <is>
-          <t>Atotonilco de Tula</t>
+          <t>Atotonilco De Tula</t>
         </is>
       </c>
       <c r="C340">
@@ -4859,7 +4859,7 @@
     <row r="341">
       <c r="B341" t="inlineStr">
         <is>
-          <t>Atotonilco el Grande</t>
+          <t>Atotonilco El Grande</t>
         </is>
       </c>
       <c r="C341">
@@ -4918,7 +4918,7 @@
         <v>7</v>
       </c>
       <c r="D345">
-        <v>0.0009045096265667399</v>
+        <v>0.00090450962656674</v>
       </c>
     </row>
     <row r="346">
@@ -4937,7 +4937,7 @@
     <row r="347">
       <c r="B347" t="inlineStr">
         <is>
-          <t>Cuautepec de Hinojosa</t>
+          <t>Cuautepec De Hinojosa</t>
         </is>
       </c>
       <c r="C347">
@@ -5002,7 +5002,7 @@
     <row r="352">
       <c r="B352" t="inlineStr">
         <is>
-          <t>Huasca de Ocampo</t>
+          <t>Huasca De Ocampo</t>
         </is>
       </c>
       <c r="C352">
@@ -5028,7 +5028,7 @@
     <row r="354">
       <c r="B354" t="inlineStr">
         <is>
-          <t>Huejutla de Reyes</t>
+          <t>Huejutla De Reyes</t>
         </is>
       </c>
       <c r="C354">
@@ -5093,7 +5093,7 @@
     <row r="359">
       <c r="B359" t="inlineStr">
         <is>
-          <t>Mineral del Monte</t>
+          <t>Mineral Del Monte</t>
         </is>
       </c>
       <c r="C359">
@@ -5106,7 +5106,7 @@
     <row r="360">
       <c r="B360" t="inlineStr">
         <is>
-          <t>Mixquiahuala de Juárez</t>
+          <t>Mixquiahuala De Juárez</t>
         </is>
       </c>
       <c r="C360">
@@ -5119,7 +5119,7 @@
     <row r="361">
       <c r="B361" t="inlineStr">
         <is>
-          <t>Molango de Escamilla</t>
+          <t>Molango De Escamilla</t>
         </is>
       </c>
       <c r="C361">
@@ -5145,7 +5145,7 @@
     <row r="363">
       <c r="B363" t="inlineStr">
         <is>
-          <t>Nopala de Villagrán</t>
+          <t>Nopala De Villagrán</t>
         </is>
       </c>
       <c r="C363">
@@ -5158,7 +5158,7 @@
     <row r="364">
       <c r="B364" t="inlineStr">
         <is>
-          <t>Omitlán de Juárez</t>
+          <t>Omitlán De Juárez</t>
         </is>
       </c>
       <c r="C364">
@@ -5171,7 +5171,7 @@
     <row r="365">
       <c r="B365" t="inlineStr">
         <is>
-          <t>Pachuca de Soto</t>
+          <t>Pachuca De Soto</t>
         </is>
       </c>
       <c r="C365">
@@ -5210,7 +5210,7 @@
     <row r="368">
       <c r="B368" t="inlineStr">
         <is>
-          <t>Progreso de Obregón</t>
+          <t>Progreso De Obregón</t>
         </is>
       </c>
       <c r="C368">
@@ -5249,7 +5249,7 @@
     <row r="371">
       <c r="B371" t="inlineStr">
         <is>
-          <t>Santiago de Anaya</t>
+          <t>Santiago De Anaya</t>
         </is>
       </c>
       <c r="C371">
@@ -5314,7 +5314,7 @@
     <row r="376">
       <c r="B376" t="inlineStr">
         <is>
-          <t>Tepeji del Río de Ocampo</t>
+          <t>Tepeji Del Río De Ocampo</t>
         </is>
       </c>
       <c r="C376">
@@ -5327,7 +5327,7 @@
     <row r="377">
       <c r="B377" t="inlineStr">
         <is>
-          <t>Tezontepec de Aldama</t>
+          <t>Tezontepec De Aldama</t>
         </is>
       </c>
       <c r="C377">
@@ -5379,7 +5379,7 @@
     <row r="381">
       <c r="B381" t="inlineStr">
         <is>
-          <t>Tula de Allende</t>
+          <t>Tula De Allende</t>
         </is>
       </c>
       <c r="C381">
@@ -5392,7 +5392,7 @@
     <row r="382">
       <c r="B382" t="inlineStr">
         <is>
-          <t>Tulancingo de Bravo</t>
+          <t>Tulancingo De Bravo</t>
         </is>
       </c>
       <c r="C382">
@@ -5405,7 +5405,7 @@
     <row r="383">
       <c r="B383" t="inlineStr">
         <is>
-          <t>Zacualtipán de Ángeles</t>
+          <t>Zacualtipán De Ángeles</t>
         </is>
       </c>
       <c r="C383">
@@ -5462,7 +5462,7 @@
     <row r="387">
       <c r="B387" t="inlineStr">
         <is>
-          <t>Ahualulco de Mercado</t>
+          <t>Ahualulco De Mercado</t>
         </is>
       </c>
       <c r="C387">
@@ -5514,7 +5514,7 @@
     <row r="391">
       <c r="B391" t="inlineStr">
         <is>
-          <t>Atotonilco el Alto</t>
+          <t>Atotonilco El Alto</t>
         </is>
       </c>
       <c r="C391">
@@ -5540,7 +5540,7 @@
     <row r="393">
       <c r="B393" t="inlineStr">
         <is>
-          <t>Autlán de Navarro</t>
+          <t>Autlán De Navarro</t>
         </is>
       </c>
       <c r="C393">
@@ -5657,7 +5657,7 @@
     <row r="402">
       <c r="B402" t="inlineStr">
         <is>
-          <t>Cuautitlán de García Barragán</t>
+          <t>Cuautitlán De García Barragán</t>
         </is>
       </c>
       <c r="C402">
@@ -5690,7 +5690,7 @@
         <v>7</v>
       </c>
       <c r="D404">
-        <v>0.0009045096265667399</v>
+        <v>0.00090450962656674</v>
       </c>
     </row>
     <row r="405">
@@ -5768,7 +5768,7 @@
         <v>71</v>
       </c>
       <c r="D410">
-        <v>0.009174311926605505</v>
+        <v>0.009174311926605503</v>
       </c>
     </row>
     <row r="411">
@@ -5787,7 +5787,7 @@
     <row r="412">
       <c r="B412" t="inlineStr">
         <is>
-          <t>Huejuquilla el Alto</t>
+          <t>Huejuquilla El Alto</t>
         </is>
       </c>
       <c r="C412">
@@ -5800,7 +5800,7 @@
     <row r="413">
       <c r="B413" t="inlineStr">
         <is>
-          <t>Ixtlahuacán del Río</t>
+          <t>Ixtlahuacán Del Río</t>
         </is>
       </c>
       <c r="C413">
@@ -5839,7 +5839,7 @@
     <row r="416">
       <c r="B416" t="inlineStr">
         <is>
-          <t>Jilotlán de los Dolores</t>
+          <t>Jilotlán De Los Dolores</t>
         </is>
       </c>
       <c r="C416">
@@ -5904,7 +5904,7 @@
     <row r="421">
       <c r="B421" t="inlineStr">
         <is>
-          <t>Lagos de Moreno</t>
+          <t>Lagos De Moreno</t>
         </is>
       </c>
       <c r="C421">
@@ -5995,7 +5995,7 @@
     <row r="428">
       <c r="B428" t="inlineStr">
         <is>
-          <t>San Diego de Alejandría</t>
+          <t>San Diego De Alejandría</t>
         </is>
       </c>
       <c r="C428">
@@ -6021,7 +6021,7 @@
     <row r="430">
       <c r="B430" t="inlineStr">
         <is>
-          <t>San Juan de los Lagos</t>
+          <t>San Juan De Los Lagos</t>
         </is>
       </c>
       <c r="C430">
@@ -6060,7 +6060,7 @@
     <row r="433">
       <c r="B433" t="inlineStr">
         <is>
-          <t>Santa María de los Ángeles</t>
+          <t>Santa María De Los Ángeles</t>
         </is>
       </c>
       <c r="C433">
@@ -6086,7 +6086,7 @@
     <row r="435">
       <c r="B435" t="inlineStr">
         <is>
-          <t>Tamazula de Gordiano</t>
+          <t>Tamazula De Gordiano</t>
         </is>
       </c>
       <c r="C435">
@@ -6151,7 +6151,7 @@
     <row r="440">
       <c r="B440" t="inlineStr">
         <is>
-          <t>Tepatitlán de Morelos</t>
+          <t>Tepatitlán De Morelos</t>
         </is>
       </c>
       <c r="C440">
@@ -6190,7 +6190,7 @@
     <row r="443">
       <c r="B443" t="inlineStr">
         <is>
-          <t>Tizapán el Alto</t>
+          <t>Tizapán El Alto</t>
         </is>
       </c>
       <c r="C443">
@@ -6203,7 +6203,7 @@
     <row r="444">
       <c r="B444" t="inlineStr">
         <is>
-          <t>Tlajomulco de Zúñiga</t>
+          <t>Tlajomulco De Zúñiga</t>
         </is>
       </c>
       <c r="C444">
@@ -6320,7 +6320,7 @@
     <row r="453">
       <c r="B453" t="inlineStr">
         <is>
-          <t>Unión de San Antonio</t>
+          <t>Unión De San Antonio</t>
         </is>
       </c>
       <c r="C453">
@@ -6333,7 +6333,7 @@
     <row r="454">
       <c r="B454" t="inlineStr">
         <is>
-          <t>Unión de Tula</t>
+          <t>Unión De Tula</t>
         </is>
       </c>
       <c r="C454">
@@ -6385,7 +6385,7 @@
     <row r="458">
       <c r="B458" t="inlineStr">
         <is>
-          <t>Yahualica de González Gallo</t>
+          <t>Yahualica De González Gallo</t>
         </is>
       </c>
       <c r="C458">
@@ -6398,7 +6398,7 @@
     <row r="459">
       <c r="B459" t="inlineStr">
         <is>
-          <t>Zacoalco de Torres</t>
+          <t>Zacoalco De Torres</t>
         </is>
       </c>
       <c r="C459">
@@ -6424,7 +6424,7 @@
     <row r="461">
       <c r="B461" t="inlineStr">
         <is>
-          <t>Zapotitlán de Vadillo</t>
+          <t>Zapotitlán De Vadillo</t>
         </is>
       </c>
       <c r="C461">
@@ -6437,7 +6437,7 @@
     <row r="462">
       <c r="B462" t="inlineStr">
         <is>
-          <t>Zapotlán el Grande</t>
+          <t>Zapotlán El Grande</t>
         </is>
       </c>
       <c r="C462">
@@ -6540,7 +6540,7 @@
         <v>7</v>
       </c>
       <c r="D469">
-        <v>0.0009045096265667399</v>
+        <v>0.00090450962656674</v>
       </c>
     </row>
     <row r="470">
@@ -6624,7 +6624,7 @@
     <row r="476">
       <c r="B476" t="inlineStr">
         <is>
-          <t>Cojumatlán de Régules</t>
+          <t>Cojumatlán De Régules</t>
         </is>
       </c>
       <c r="C476">
@@ -7157,7 +7157,7 @@
     <row r="517">
       <c r="B517" t="inlineStr">
         <is>
-          <t>Tiquicheo de Nicolás Romero</t>
+          <t>Tiquicheo De Nicolás Romero</t>
         </is>
       </c>
       <c r="C517">
@@ -7416,7 +7416,7 @@
         <v>71</v>
       </c>
       <c r="D536">
-        <v>0.009174311926605505</v>
+        <v>0.009174311926605503</v>
       </c>
     </row>
     <row r="537">
@@ -7552,7 +7552,7 @@
     <row r="547">
       <c r="B547" t="inlineStr">
         <is>
-          <t>Puente de Ixtla</t>
+          <t>Puente De Ixtla</t>
         </is>
       </c>
       <c r="C547">
@@ -7585,7 +7585,7 @@
         <v>7</v>
       </c>
       <c r="D549">
-        <v>0.0009045096265667399</v>
+        <v>0.00090450962656674</v>
       </c>
     </row>
     <row r="550">
@@ -7617,7 +7617,7 @@
     <row r="552">
       <c r="B552" t="inlineStr">
         <is>
-          <t>Tetela del Volcán</t>
+          <t>Tetela Del Volcán</t>
         </is>
       </c>
       <c r="C552">
@@ -7630,7 +7630,7 @@
     <row r="553">
       <c r="B553" t="inlineStr">
         <is>
-          <t>Tlaltizapán de Zapata</t>
+          <t>Tlaltizapán De Zapata</t>
         </is>
       </c>
       <c r="C553">
@@ -7708,7 +7708,7 @@
     <row r="559">
       <c r="B559" t="inlineStr">
         <is>
-          <t>Zacualpan de Amilpas</t>
+          <t>Zacualpan De Amilpas</t>
         </is>
       </c>
       <c r="C559">
@@ -7752,7 +7752,7 @@
     <row r="562">
       <c r="B562" t="inlineStr">
         <is>
-          <t>Ixtlán del Río</t>
+          <t>Ixtlán Del Río</t>
         </is>
       </c>
       <c r="C562">
@@ -7991,7 +7991,7 @@
     <row r="580">
       <c r="B580" t="inlineStr">
         <is>
-          <t>Mier y Noriega</t>
+          <t>Mier Y Noriega</t>
         </is>
       </c>
       <c r="C580">
@@ -8030,7 +8030,7 @@
     <row r="583">
       <c r="B583" t="inlineStr">
         <is>
-          <t>San Nicolás de los Garza</t>
+          <t>San Nicolás De Los Garza</t>
         </is>
       </c>
       <c r="C583">
@@ -8087,7 +8087,7 @@
       </c>
       <c r="B587" t="inlineStr">
         <is>
-          <t>Ayoquezco de Aldama</t>
+          <t>Ayoquezco De Aldama</t>
         </is>
       </c>
       <c r="C587">
@@ -8152,7 +8152,7 @@
     <row r="592">
       <c r="B592" t="inlineStr">
         <is>
-          <t>Coicoyán de las Flores</t>
+          <t>Coicoyán De Las Flores</t>
         </is>
       </c>
       <c r="C592">
@@ -8178,7 +8178,7 @@
     <row r="594">
       <c r="B594" t="inlineStr">
         <is>
-          <t>Constancia del Rosario</t>
+          <t>Constancia Del Rosario</t>
         </is>
       </c>
       <c r="C594">
@@ -8204,7 +8204,7 @@
     <row r="596">
       <c r="B596" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Ejutla de Crespo</t>
+          <t>Heroica Ciudad De Ejutla De Crespo</t>
         </is>
       </c>
       <c r="C596">
@@ -8217,7 +8217,7 @@
     <row r="597">
       <c r="B597" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Huajuapan de León</t>
+          <t>Heroica Ciudad De Huajuapan De León</t>
         </is>
       </c>
       <c r="C597">
@@ -8230,7 +8230,7 @@
     <row r="598">
       <c r="B598" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Tlaxiaco</t>
+          <t>Heroica Ciudad De Tlaxiaco</t>
         </is>
       </c>
       <c r="C598">
@@ -8243,7 +8243,7 @@
     <row r="599">
       <c r="B599" t="inlineStr">
         <is>
-          <t>Ixtlán de Juárez</t>
+          <t>Ixtlán De Juárez</t>
         </is>
       </c>
       <c r="C599">
@@ -8256,7 +8256,7 @@
     <row r="600">
       <c r="B600" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Juchitán de Zaragoza</t>
+          <t>Heroica Ciudad De Juchitán De Zaragoza</t>
         </is>
       </c>
       <c r="C600">
@@ -8308,7 +8308,7 @@
     <row r="604">
       <c r="B604" t="inlineStr">
         <is>
-          <t>Mariscala de Juárez</t>
+          <t>Mariscala De Juárez</t>
         </is>
       </c>
       <c r="C604">
@@ -8334,7 +8334,7 @@
     <row r="606">
       <c r="B606" t="inlineStr">
         <is>
-          <t>Miahuatlán de Porfirio Díaz</t>
+          <t>Miahuatlán De Porfirio Díaz</t>
         </is>
       </c>
       <c r="C606">
@@ -8360,7 +8360,7 @@
     <row r="608">
       <c r="B608" t="inlineStr">
         <is>
-          <t>Oaxaca de Juárez</t>
+          <t>Oaxaca De Juárez</t>
         </is>
       </c>
       <c r="C608">
@@ -8373,7 +8373,7 @@
     <row r="609">
       <c r="B609" t="inlineStr">
         <is>
-          <t>Ocotlán de Morelos</t>
+          <t>Ocotlán De Morelos</t>
         </is>
       </c>
       <c r="C609">
@@ -8399,7 +8399,7 @@
     <row r="611">
       <c r="B611" t="inlineStr">
         <is>
-          <t>Putla Villa de Guerrero</t>
+          <t>Putla Villa De Guerrero</t>
         </is>
       </c>
       <c r="C611">
@@ -8685,7 +8685,7 @@
     <row r="633">
       <c r="B633" t="inlineStr">
         <is>
-          <t>San Juan Bautista Lo de Soto</t>
+          <t>San Juan Bautista Lo De Soto</t>
         </is>
       </c>
       <c r="C633">
@@ -9075,7 +9075,7 @@
     <row r="663">
       <c r="B663" t="inlineStr">
         <is>
-          <t>San Pedro el Alto</t>
+          <t>San Pedro El Alto</t>
         </is>
       </c>
       <c r="C663">
@@ -9660,7 +9660,7 @@
     <row r="708">
       <c r="B708" t="inlineStr">
         <is>
-          <t>Teotitlán de Flores Magón</t>
+          <t>Teotitlán De Flores Magón</t>
         </is>
       </c>
       <c r="C708">
@@ -9686,7 +9686,7 @@
     <row r="710">
       <c r="B710" t="inlineStr">
         <is>
-          <t>Tlacolula de Matamoros</t>
+          <t>Tlacolula De Matamoros</t>
         </is>
       </c>
       <c r="C710">
@@ -9699,7 +9699,7 @@
     <row r="711">
       <c r="B711" t="inlineStr">
         <is>
-          <t>Totontepec Villa de Morelos</t>
+          <t>Totontepec Villa De Morelos</t>
         </is>
       </c>
       <c r="C711">
@@ -9712,7 +9712,7 @@
     <row r="712">
       <c r="B712" t="inlineStr">
         <is>
-          <t>Villa de Chilapa de Díaz</t>
+          <t>Villa De Chilapa De Díaz</t>
         </is>
       </c>
       <c r="C712">
@@ -9725,7 +9725,7 @@
     <row r="713">
       <c r="B713" t="inlineStr">
         <is>
-          <t>Villa de Tututepec de Melchor Ocampo</t>
+          <t>Villa De Tututepec De Melchor Ocampo</t>
         </is>
       </c>
       <c r="C713">
@@ -9777,7 +9777,7 @@
     <row r="717">
       <c r="B717" t="inlineStr">
         <is>
-          <t>Zimatlán de Álvarez</t>
+          <t>Zimatlán De Álvarez</t>
         </is>
       </c>
       <c r="C717">
@@ -10120,7 +10120,7 @@
     <row r="743">
       <c r="B743" t="inlineStr">
         <is>
-          <t>Chila de la Sal</t>
+          <t>Chila De La Sal</t>
         </is>
       </c>
       <c r="C743">
@@ -10198,7 +10198,7 @@
     <row r="749">
       <c r="B749" t="inlineStr">
         <is>
-          <t>Cuayuca de Andrade</t>
+          <t>Cuayuca De Andrade</t>
         </is>
       </c>
       <c r="C749">
@@ -10211,7 +10211,7 @@
     <row r="750">
       <c r="B750" t="inlineStr">
         <is>
-          <t>Cuetzalan del Progreso</t>
+          <t>Cuetzalan Del Progreso</t>
         </is>
       </c>
       <c r="C750">
@@ -10354,7 +10354,7 @@
     <row r="761">
       <c r="B761" t="inlineStr">
         <is>
-          <t>Huehuetlán el Chico</t>
+          <t>Huehuetlán El Chico</t>
         </is>
       </c>
       <c r="C761">
@@ -10367,7 +10367,7 @@
     <row r="762">
       <c r="B762" t="inlineStr">
         <is>
-          <t>Huehuetlán el Grande</t>
+          <t>Huehuetlán El Grande</t>
         </is>
       </c>
       <c r="C762">
@@ -10419,7 +10419,7 @@
     <row r="766">
       <c r="B766" t="inlineStr">
         <is>
-          <t>Izúcar de Matamoros</t>
+          <t>Izúcar De Matamoros</t>
         </is>
       </c>
       <c r="C766">
@@ -10484,7 +10484,7 @@
     <row r="771">
       <c r="B771" t="inlineStr">
         <is>
-          <t>Los Reyes de Juárez</t>
+          <t>Los Reyes De Juárez</t>
         </is>
       </c>
       <c r="C771">
@@ -10692,7 +10692,7 @@
     <row r="787">
       <c r="B787" t="inlineStr">
         <is>
-          <t>San Salvador el Seco</t>
+          <t>San Salvador El Seco</t>
         </is>
       </c>
       <c r="C787">
@@ -10705,7 +10705,7 @@
     <row r="788">
       <c r="B788" t="inlineStr">
         <is>
-          <t>San Salvador el Verde</t>
+          <t>San Salvador El Verde</t>
         </is>
       </c>
       <c r="C788">
@@ -10718,7 +10718,7 @@
     <row r="789">
       <c r="B789" t="inlineStr">
         <is>
-          <t>Tecali de Herrera</t>
+          <t>Tecali De Herrera</t>
         </is>
       </c>
       <c r="C789">
@@ -10822,7 +10822,7 @@
     <row r="797">
       <c r="B797" t="inlineStr">
         <is>
-          <t>Tepatlaxco de Hidalgo</t>
+          <t>Tepatlaxco De Hidalgo</t>
         </is>
       </c>
       <c r="C797">
@@ -10887,7 +10887,7 @@
     <row r="802">
       <c r="B802" t="inlineStr">
         <is>
-          <t>Tepexi de Rodríguez</t>
+          <t>Tepexi De Rodríguez</t>
         </is>
       </c>
       <c r="C802">
@@ -10900,7 +10900,7 @@
     <row r="803">
       <c r="B803" t="inlineStr">
         <is>
-          <t>Tetela de Ocampo</t>
+          <t>Tetela De Ocampo</t>
         </is>
       </c>
       <c r="C803">
@@ -10939,7 +10939,7 @@
     <row r="806">
       <c r="B806" t="inlineStr">
         <is>
-          <t>Tlacotepec de Benito Juárez</t>
+          <t>Tlacotepec De Benito Juárez</t>
         </is>
       </c>
       <c r="C806">
@@ -11230,7 +11230,7 @@
       </c>
       <c r="B828" t="inlineStr">
         <is>
-          <t>Amealco de Bonfil</t>
+          <t>Amealco De Bonfil</t>
         </is>
       </c>
       <c r="C828">
@@ -11243,7 +11243,7 @@
     <row r="829">
       <c r="B829" t="inlineStr">
         <is>
-          <t>Cadereyta de Montes</t>
+          <t>Cadereyta De Montes</t>
         </is>
       </c>
       <c r="C829">
@@ -11282,7 +11282,7 @@
     <row r="832">
       <c r="B832" t="inlineStr">
         <is>
-          <t>Jalpan de Serra</t>
+          <t>Jalpan De Serra</t>
         </is>
       </c>
       <c r="C832">
@@ -11295,7 +11295,7 @@
     <row r="833">
       <c r="B833" t="inlineStr">
         <is>
-          <t>Landa de Matamoros</t>
+          <t>Landa De Matamoros</t>
         </is>
       </c>
       <c r="C833">
@@ -11321,7 +11321,7 @@
     <row r="835">
       <c r="B835" t="inlineStr">
         <is>
-          <t>Pinal de Amoles</t>
+          <t>Pinal De Amoles</t>
         </is>
       </c>
       <c r="C835">
@@ -11347,7 +11347,7 @@
     <row r="837">
       <c r="B837" t="inlineStr">
         <is>
-          <t>San Juan del Río</t>
+          <t>San Juan Del Río</t>
         </is>
       </c>
       <c r="C837">
@@ -11552,14 +11552,14 @@
     <row r="852">
       <c r="B852" t="inlineStr">
         <is>
-          <t>Ciudad del Maíz</t>
+          <t>Ciudad Del Maíz</t>
         </is>
       </c>
       <c r="C852">
         <v>7</v>
       </c>
       <c r="D852">
-        <v>0.0009045096265667399</v>
+        <v>0.00090450962656674</v>
       </c>
     </row>
     <row r="853">
@@ -11630,7 +11630,7 @@
     <row r="858">
       <c r="B858" t="inlineStr">
         <is>
-          <t>Mexquitic de Carmona</t>
+          <t>Mexquitic De Carmona</t>
         </is>
       </c>
       <c r="C858">
@@ -11682,7 +11682,7 @@
     <row r="862">
       <c r="B862" t="inlineStr">
         <is>
-          <t>San Ciro de Acosta</t>
+          <t>San Ciro De Acosta</t>
         </is>
       </c>
       <c r="C862">
@@ -11747,7 +11747,7 @@
     <row r="867">
       <c r="B867" t="inlineStr">
         <is>
-          <t>Santa María del Río</t>
+          <t>Santa María Del Río</t>
         </is>
       </c>
       <c r="C867">
@@ -11799,7 +11799,7 @@
     <row r="871">
       <c r="B871" t="inlineStr">
         <is>
-          <t>Villa de Arista</t>
+          <t>Villa De Arista</t>
         </is>
       </c>
       <c r="C871">
@@ -11812,7 +11812,7 @@
     <row r="872">
       <c r="B872" t="inlineStr">
         <is>
-          <t>Villa de Arriaga</t>
+          <t>Villa De Arriaga</t>
         </is>
       </c>
       <c r="C872">
@@ -11825,7 +11825,7 @@
     <row r="873">
       <c r="B873" t="inlineStr">
         <is>
-          <t>Villa de Ramos</t>
+          <t>Villa De Ramos</t>
         </is>
       </c>
       <c r="C873">
@@ -11838,7 +11838,7 @@
     <row r="874">
       <c r="B874" t="inlineStr">
         <is>
-          <t>Villa de Reyes</t>
+          <t>Villa De Reyes</t>
         </is>
       </c>
       <c r="C874">
@@ -12180,7 +12180,7 @@
         <v>7</v>
       </c>
       <c r="D899">
-        <v>0.0009045096265667399</v>
+        <v>0.00090450962656674</v>
       </c>
     </row>
     <row r="900">
@@ -12219,7 +12219,7 @@
         <v>7</v>
       </c>
       <c r="D902">
-        <v>0.0009045096265667399</v>
+        <v>0.00090450962656674</v>
       </c>
     </row>
     <row r="903">
@@ -12251,7 +12251,7 @@
     <row r="905">
       <c r="B905" t="inlineStr">
         <is>
-          <t>Nacozari de García</t>
+          <t>Nacozari De García</t>
         </is>
       </c>
       <c r="C905">
@@ -12412,7 +12412,7 @@
     <row r="917">
       <c r="B917" t="inlineStr">
         <is>
-          <t>Jalpa de Méndez</t>
+          <t>Jalpa De Méndez</t>
         </is>
       </c>
       <c r="C917">
@@ -12760,7 +12760,7 @@
       </c>
       <c r="B943" t="inlineStr">
         <is>
-          <t>Acuamanala de Miguel Hidalgo</t>
+          <t>Acuamanala De Miguel Hidalgo</t>
         </is>
       </c>
       <c r="C943">
@@ -12838,7 +12838,7 @@
     <row r="949">
       <c r="B949" t="inlineStr">
         <is>
-          <t>Nanacamilpa de Mariano Arista</t>
+          <t>Nanacamilpa De Mariano Arista</t>
         </is>
       </c>
       <c r="C949">
@@ -12864,7 +12864,7 @@
     <row r="951">
       <c r="B951" t="inlineStr">
         <is>
-          <t>Papalotla de Xicohténcatl</t>
+          <t>Papalotla De Xicohténcatl</t>
         </is>
       </c>
       <c r="C951">
@@ -12877,7 +12877,7 @@
     <row r="952">
       <c r="B952" t="inlineStr">
         <is>
-          <t>San Pablo del Monte</t>
+          <t>San Pablo Del Monte</t>
         </is>
       </c>
       <c r="C952">
@@ -12916,7 +12916,7 @@
     <row r="955">
       <c r="B955" t="inlineStr">
         <is>
-          <t>Tepetitla de Lardizábal</t>
+          <t>Tepetitla De Lardizábal</t>
         </is>
       </c>
       <c r="C955">
@@ -13090,7 +13090,7 @@
     <row r="968">
       <c r="B968" t="inlineStr">
         <is>
-          <t>Amatlán de los Reyes</t>
+          <t>Amatlán De Los Reyes</t>
         </is>
       </c>
       <c r="C968">
@@ -13168,7 +13168,7 @@
     <row r="974">
       <c r="B974" t="inlineStr">
         <is>
-          <t>Boca del Río</t>
+          <t>Boca Del Río</t>
         </is>
       </c>
       <c r="C974">
@@ -13233,7 +13233,7 @@
     <row r="979">
       <c r="B979" t="inlineStr">
         <is>
-          <t>Cazones de Herrera</t>
+          <t>Cazones De Herrera</t>
         </is>
       </c>
       <c r="C979">
@@ -13292,7 +13292,7 @@
         <v>7</v>
       </c>
       <c r="D983">
-        <v>0.0009045096265667399</v>
+        <v>0.00090450962656674</v>
       </c>
     </row>
     <row r="984">
@@ -13337,7 +13337,7 @@
     <row r="987">
       <c r="B987" t="inlineStr">
         <is>
-          <t>Cosamaloapan de Carpio</t>
+          <t>Cosamaloapan De Carpio</t>
         </is>
       </c>
       <c r="C987">
@@ -13493,7 +13493,7 @@
     <row r="999">
       <c r="B999" t="inlineStr">
         <is>
-          <t>Huiloapan de Cuauhtémoc</t>
+          <t>Huiloapan De Cuauhtémoc</t>
         </is>
       </c>
       <c r="C999">
@@ -13506,7 +13506,7 @@
     <row r="1000">
       <c r="B1000" t="inlineStr">
         <is>
-          <t>Ignacio de la Llave</t>
+          <t>Ignacio De La Llave</t>
         </is>
       </c>
       <c r="C1000">
@@ -13519,7 +13519,7 @@
     <row r="1001">
       <c r="B1001" t="inlineStr">
         <is>
-          <t>Ixhuatlán de Madero</t>
+          <t>Ixhuatlán De Madero</t>
         </is>
       </c>
       <c r="C1001">
@@ -13532,7 +13532,7 @@
     <row r="1002">
       <c r="B1002" t="inlineStr">
         <is>
-          <t>Ixhuatlán del Sureste</t>
+          <t>Ixhuatlán Del Sureste</t>
         </is>
       </c>
       <c r="C1002">
@@ -13610,7 +13610,7 @@
     <row r="1008">
       <c r="B1008" t="inlineStr">
         <is>
-          <t>Juchique de Ferrer</t>
+          <t>Juchique De Ferrer</t>
         </is>
       </c>
       <c r="C1008">
@@ -13649,7 +13649,7 @@
     <row r="1011">
       <c r="B1011" t="inlineStr">
         <is>
-          <t>Las Vigas de Ramírez</t>
+          <t>Las Vigas De Ramírez</t>
         </is>
       </c>
       <c r="C1011">
@@ -13662,7 +13662,7 @@
     <row r="1012">
       <c r="B1012" t="inlineStr">
         <is>
-          <t>Lerdo de Tejada</t>
+          <t>Lerdo De Tejada</t>
         </is>
       </c>
       <c r="C1012">
@@ -13714,7 +13714,7 @@
     <row r="1016">
       <c r="B1016" t="inlineStr">
         <is>
-          <t>Martínez de la Torre</t>
+          <t>Martínez De La Torre</t>
         </is>
       </c>
       <c r="C1016">
@@ -13727,7 +13727,7 @@
     <row r="1017">
       <c r="B1017" t="inlineStr">
         <is>
-          <t>Medellín de Bravo</t>
+          <t>Medellín De Bravo</t>
         </is>
       </c>
       <c r="C1017">
@@ -13747,7 +13747,7 @@
         <v>7</v>
       </c>
       <c r="D1018">
-        <v>0.0009045096265667399</v>
+        <v>0.00090450962656674</v>
       </c>
     </row>
     <row r="1019">
@@ -13870,7 +13870,7 @@
     <row r="1028">
       <c r="B1028" t="inlineStr">
         <is>
-          <t>Ozuluama de Mascareñas</t>
+          <t>Ozuluama De Mascareñas</t>
         </is>
       </c>
       <c r="C1028">
@@ -13909,7 +13909,7 @@
     <row r="1031">
       <c r="B1031" t="inlineStr">
         <is>
-          <t>Paso de Ovejas</t>
+          <t>Paso De Ovejas</t>
         </is>
       </c>
       <c r="C1031">
@@ -13961,14 +13961,14 @@
     <row r="1035">
       <c r="B1035" t="inlineStr">
         <is>
-          <t>Poza Rica de Hidalgo</t>
+          <t>Poza Rica De Hidalgo</t>
         </is>
       </c>
       <c r="C1035">
         <v>7</v>
       </c>
       <c r="D1035">
-        <v>0.0009045096265667399</v>
+        <v>0.00090450962656674</v>
       </c>
     </row>
     <row r="1036">
@@ -14163,7 +14163,7 @@
         <v>7</v>
       </c>
       <c r="D1050">
-        <v>0.0009045096265667399</v>
+        <v>0.00090450962656674</v>
       </c>
     </row>
     <row r="1051">
@@ -14338,7 +14338,7 @@
     <row r="1064">
       <c r="B1064" t="inlineStr">
         <is>
-          <t>Vega de Alatorre</t>
+          <t>Vega De Alatorre</t>
         </is>
       </c>
       <c r="C1064">
@@ -14429,7 +14429,7 @@
     <row r="1071">
       <c r="B1071" t="inlineStr">
         <is>
-          <t>Zozocolco de Hidalgo</t>
+          <t>Zozocolco De Hidalgo</t>
         </is>
       </c>
       <c r="C1071">
@@ -14582,7 +14582,7 @@
     <row r="1082">
       <c r="B1082" t="inlineStr">
         <is>
-          <t>El Plateado de Joaquín Amaro</t>
+          <t>El Plateado De Joaquín Amaro</t>
         </is>
       </c>
       <c r="C1082">
@@ -14680,13 +14680,13 @@
         <v>7</v>
       </c>
       <c r="D1089">
-        <v>0.0009045096265667399</v>
+        <v>0.00090450962656674</v>
       </c>
     </row>
     <row r="1090">
       <c r="B1090" t="inlineStr">
         <is>
-          <t>Jiménez del Teul</t>
+          <t>Jiménez Del Teul</t>
         </is>
       </c>
       <c r="C1090">
@@ -14777,7 +14777,7 @@
     <row r="1097">
       <c r="B1097" t="inlineStr">
         <is>
-          <t>Mezquital del Oro</t>
+          <t>Mezquital Del Oro</t>
         </is>
       </c>
       <c r="C1097">
@@ -14816,7 +14816,7 @@
     <row r="1100">
       <c r="B1100" t="inlineStr">
         <is>
-          <t>Nochistlán de Mejía</t>
+          <t>Nochistlán De Mejía</t>
         </is>
       </c>
       <c r="C1100">
@@ -14829,7 +14829,7 @@
     <row r="1101">
       <c r="B1101" t="inlineStr">
         <is>
-          <t>Noria de Ángeles</t>
+          <t>Noria De Ángeles</t>
         </is>
       </c>
       <c r="C1101">
@@ -14862,7 +14862,7 @@
         <v>7</v>
       </c>
       <c r="D1103">
-        <v>0.0009045096265667399</v>
+        <v>0.00090450962656674</v>
       </c>
     </row>
     <row r="1104">
@@ -14920,7 +14920,7 @@
     <row r="1108">
       <c r="B1108" t="inlineStr">
         <is>
-          <t>Tlaltenango de Sánchez Román</t>
+          <t>Tlaltenango De Sánchez Román</t>
         </is>
       </c>
       <c r="C1108">
@@ -14933,7 +14933,7 @@
     <row r="1109">
       <c r="B1109" t="inlineStr">
         <is>
-          <t>Trinidad García de la Cadena</t>
+          <t>Trinidad García De La Cadena</t>
         </is>
       </c>
       <c r="C1109">
@@ -14959,7 +14959,7 @@
     <row r="1111">
       <c r="B1111" t="inlineStr">
         <is>
-          <t>Villa de Cos</t>
+          <t>Villa De Cos</t>
         </is>
       </c>
       <c r="C1111">
@@ -15045,41 +15045,6 @@
       </c>
       <c r="D1117">
         <v>1</v>
-      </c>
-    </row>
-    <row r="1119">
-      <c r="A1119" t="inlineStr">
-        <is>
-          <t>Tamaño de la muestra: 1,114,005</t>
-        </is>
-      </c>
-    </row>
-    <row r="1120">
-      <c r="A1120" t="inlineStr">
-        <is>
-          <t>Fuente: Expedición de Matrículas Consulares de Alta Seguridad en los Consulados de México en E.E.U.U.</t>
-        </is>
-      </c>
-    </row>
-    <row r="1121">
-      <c r="A1121" t="inlineStr">
-        <is>
-          <t>Elaborado por: Análisis de Información, Instituto de los Mexicanos en el Exterior</t>
-        </is>
-      </c>
-    </row>
-    <row r="1122">
-      <c r="A1122" t="inlineStr">
-        <is>
-          <t>Secretaría de Relaciones Exteriores</t>
-        </is>
-      </c>
-    </row>
-    <row r="1123">
-      <c r="A1123" t="inlineStr">
-        <is>
-          <t>Junio de 2016</t>
-        </is>
       </c>
     </row>
   </sheetData>
